--- a/biology/Biologie cellulaire et moléculaire/Produit_génique/Produit_génique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Produit_génique/Produit_génique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Produit_g%C3%A9nique</t>
+          <t>Produit_génique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un produit génique est une biomolécule résultant de l'expression d'un gène. Il peut s'agir d'un fragment, soit d'ARN, soit de protéine. La mesure de la quantité de produits géniques est parfois utilisée pour évaluer l'activité d'un gène, comme dans le cas des oncogènes, dont la surexpression peut entraîner des cancers.
 </t>
